--- a/TugasAPG.xlsx
+++ b/TugasAPG.xlsx
@@ -8,19 +8,20 @@
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="D:\STIS\Semester 6\4.Analisis Peubah Ganda\R\TugasAkhir\Tugas\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{4498A4B8-844A-4015-9A9C-F8C0A90FA675}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{A016C539-22EF-4B88-9E8D-89A99FFFFDBC}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
-    <workbookView xWindow="-110" yWindow="-110" windowWidth="19420" windowHeight="11500" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
+    <workbookView xWindow="-110" yWindow="-110" windowWidth="19420" windowHeight="11500" activeTab="1" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
   </bookViews>
   <sheets>
     <sheet name="Data2" sheetId="9" r:id="rId1"/>
+    <sheet name="metadata" sheetId="11" r:id="rId2"/>
   </sheets>
   <calcPr calcId="0"/>
 </workbook>
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="73" uniqueCount="6">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="78" uniqueCount="11">
   <si>
     <t>gini rasio</t>
   </si>
@@ -39,6 +40,21 @@
   <si>
     <t>jogja</t>
   </si>
+  <si>
+    <t>Keterangan</t>
+  </si>
+  <si>
+    <t>IPM2021</t>
+  </si>
+  <si>
+    <t>Gini Rasio</t>
+  </si>
+  <si>
+    <t>IPM adalah indeks komposit yang mengukur pembangunan manusia dari tiga aspek dasar yaitu umur Panjang dan hidup sehat, pengetahuan, dan standar hidup layak.</t>
+  </si>
+  <si>
+    <t>Gini rasio adalah  indikator yang menunjukkan tingkat ketimpangan pengeluaran secara menyeluruh.</t>
+  </si>
 </sst>
 </file>
 
@@ -47,7 +63,7 @@
   <numFmts count="1">
     <numFmt numFmtId="164" formatCode="#,##0.000"/>
   </numFmts>
-  <fonts count="5" x14ac:knownFonts="1">
+  <fonts count="7" x14ac:knownFonts="1">
     <font>
       <sz val="10"/>
       <color rgb="FF000000"/>
@@ -75,6 +91,20 @@
       <color rgb="FF000000"/>
       <name val="Calibri"/>
       <family val="2"/>
+    </font>
+    <font>
+      <sz val="10"/>
+      <color rgb="FF000000"/>
+      <name val="Arial"/>
+      <family val="2"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <sz val="11"/>
+      <color rgb="FF000000"/>
+      <name val="Arial"/>
+      <family val="2"/>
+      <scheme val="minor"/>
     </font>
   </fonts>
   <fills count="4">
@@ -139,7 +169,7 @@
   <cellStyleXfs count="1">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0"/>
   </cellStyleXfs>
-  <cellXfs count="9">
+  <cellXfs count="11">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1"/>
     <xf numFmtId="164" fontId="3" fillId="2" borderId="1" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="right" vertical="top"/>
@@ -159,6 +189,8 @@
     <xf numFmtId="0" fontId="4" fillId="0" borderId="2" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="right" wrapText="1"/>
     </xf>
+    <xf numFmtId="0" fontId="5" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1"/>
+    <xf numFmtId="0" fontId="6" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1"/>
   </cellXfs>
   <cellStyles count="1">
     <cellStyle name="Normal" xfId="0" builtinId="0"/>
@@ -376,8 +408,8 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{5C047BAE-02D0-49AF-821D-355AE90DE364}">
   <dimension ref="A1:C71"/>
   <sheetViews>
-    <sheetView tabSelected="1" topLeftCell="A61" workbookViewId="0">
-      <selection activeCell="G68" sqref="G68"/>
+    <sheetView workbookViewId="0">
+      <selection activeCell="F2" sqref="F2"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="12.5" x14ac:dyDescent="0.25"/>
@@ -1166,4 +1198,57 @@
   </sheetData>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
 </worksheet>
+</file>
+
+<file path=xl/worksheets/sheet2.xml><?xml version="1.0" encoding="utf-8"?>
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{CF13E170-8A0E-4C66-B5D6-D42139A51F9D}">
+  <dimension ref="A1:K4"/>
+  <sheetViews>
+    <sheetView tabSelected="1" workbookViewId="0">
+      <selection activeCell="D6" sqref="D6"/>
+    </sheetView>
+  </sheetViews>
+  <sheetFormatPr defaultRowHeight="12.5" x14ac:dyDescent="0.25"/>
+  <cols>
+    <col min="1" max="1" width="12.90625" customWidth="1"/>
+    <col min="2" max="2" width="10.08984375" customWidth="1"/>
+  </cols>
+  <sheetData>
+    <row r="1" spans="1:11" x14ac:dyDescent="0.25">
+      <c r="A1" t="s">
+        <v>6</v>
+      </c>
+    </row>
+    <row r="2" spans="1:11" ht="14" x14ac:dyDescent="0.3">
+      <c r="A2" s="10" t="s">
+        <v>8</v>
+      </c>
+      <c r="B2" s="10" t="s">
+        <v>10</v>
+      </c>
+      <c r="C2" s="10"/>
+      <c r="D2" s="10"/>
+      <c r="E2" s="10"/>
+      <c r="F2" s="10"/>
+      <c r="G2" s="10"/>
+      <c r="H2" s="10"/>
+      <c r="I2" s="10"/>
+      <c r="J2" s="10"/>
+      <c r="K2" s="10"/>
+    </row>
+    <row r="3" spans="1:11" ht="14" x14ac:dyDescent="0.3">
+      <c r="A3" t="s">
+        <v>7</v>
+      </c>
+      <c r="B3" s="10" t="s">
+        <v>9</v>
+      </c>
+    </row>
+    <row r="4" spans="1:11" x14ac:dyDescent="0.25">
+      <c r="A4" s="9"/>
+    </row>
+  </sheetData>
+  <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
+  <pageSetup paperSize="9" orientation="portrait" r:id="rId1"/>
+</worksheet>
 </file>